--- a/CAMCAR_COVID_Cases.xlsx
+++ b/CAMCAR_COVID_Cases.xlsx
@@ -85,31 +85,31 @@
     <t xml:space="preserve">Jamaica</t>
   </si>
   <si>
+    <t xml:space="preserve">Aruba</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bahamas</t>
   </si>
   <si>
-    <t xml:space="preserve">Aruba</t>
-  </si>
-  <si>
     <t xml:space="preserve">Trinidad and Tobago</t>
   </si>
   <si>
     <t xml:space="preserve">Guyana</t>
   </si>
   <si>
+    <t xml:space="preserve">St Martin</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cayman Islands</t>
   </si>
   <si>
-    <t xml:space="preserve">St Martin</t>
-  </si>
-  <si>
     <t xml:space="preserve">Barbados</t>
   </si>
   <si>
+    <t xml:space="preserve">Curacao</t>
+  </si>
+  <si>
     <t xml:space="preserve">Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curacao</t>
   </si>
   <si>
     <t xml:space="preserve">Saint Lucia</t>
@@ -218,7 +218,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.71"/>
@@ -271,31 +271,31 @@
         <v>10847910</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>92557</v>
+        <v>100937</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1613</v>
+        <v>1914</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>63478</v>
+        <v>74305</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>27466</v>
+        <v>24718</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>340</v>
+        <v>806</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1.743</v>
+        <v>1.896</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>853.224</v>
+        <v>930.474</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>1.238</v>
+        <v>3.261</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -306,31 +306,31 @@
         <v>4314767</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>89082</v>
+        <v>99042</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1932</v>
+        <v>2116</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>63595</v>
+        <v>71419</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>23555</v>
+        <v>25507</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>701</v>
+        <v>635</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>2.169</v>
+        <v>2.136</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>2064.584</v>
+        <v>2295.419</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>2.976</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -341,31 +341,31 @@
         <v>17915568</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>70714</v>
+        <v>79622</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>2662</v>
+        <v>2897</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>58783</v>
+        <v>68308</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>9269</v>
+        <v>8417</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1063</v>
+        <v>901</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>3.764</v>
+        <v>3.638</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>394.707</v>
+        <v>444.429</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>11.468</v>
+        <v>10.705</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,31 +376,31 @@
         <v>9904607</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>56649</v>
+        <v>65597</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>1747</v>
+        <v>2044</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>9169</v>
+        <v>15064</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>45733</v>
+        <v>48489</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>772</v>
+        <v>379</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0.031</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>3.084</v>
+        <v>3.116</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>571.946</v>
+        <v>662.288</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>1.688</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,31 +411,31 @@
         <v>5094118</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>36307</v>
+        <v>51224</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>386</v>
+        <v>543</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>13317</v>
+        <v>19544</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>22604</v>
+        <v>31137</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1002</v>
+        <v>1327</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0.011</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1.063</v>
+        <v>1.06</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>712.724</v>
+        <v>1005.552</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>4.433</v>
+        <v>4.262</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -446,31 +446,31 @@
         <v>6486205</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>25140</v>
+        <v>26602</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>687</v>
+        <v>770</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>13046</v>
+        <v>16786</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>11407</v>
+        <v>9046</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.027</v>
+        <v>0.029</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>2.733</v>
+        <v>2.895</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>387.592</v>
+        <v>410.132</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>1.35</v>
+        <v>1.006</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -481,31 +481,31 @@
         <v>11402528</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>8122</v>
+        <v>8384</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>5677</v>
+        <v>5991</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2248</v>
+        <v>2179</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.024</v>
+        <v>0.026</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>2.426</v>
+        <v>2.552</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>71.23</v>
+        <v>73.528</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.445</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,16 +516,16 @@
         <v>6624554</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>4494</v>
+        <v>4818</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>2913</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1444</v>
+        <v>1761</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>0</v>
@@ -534,10 +534,10 @@
         <v>0.03</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>3.049</v>
+        <v>2.989</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>67.839</v>
+        <v>72.729</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>0</v>
@@ -551,31 +551,31 @@
         <v>11326616</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>3759</v>
+        <v>4459</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>3159</v>
+        <v>3727</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>508</v>
+        <v>628</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.024</v>
+        <v>0.023</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>2.447</v>
+        <v>2.332</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>33.187</v>
+        <v>39.367</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>2.953</v>
+        <v>13.057</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,31 +586,31 @@
         <v>2961167</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1804</v>
+        <v>3437</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>846</v>
+        <v>1019</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>939</v>
+        <v>2380</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0.011</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1.053</v>
+        <v>1.106</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>60.922</v>
+        <v>116.069</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>7.668</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,34 +618,34 @@
         <v>21</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>393244</v>
+        <v>106766</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1765</v>
+        <v>2730</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>227</v>
+        <v>1351</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1509</v>
+        <v>1364</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.016</v>
+        <v>0.005</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1.643</v>
+        <v>0.549</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>448.831</v>
+        <v>2556.994</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>0</v>
+        <v>10.337</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -653,34 +653,34 @@
         <v>22</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>106766</v>
+        <v>393244</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1760</v>
+        <v>2721</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>587</v>
+        <v>1183</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1165</v>
+        <v>1475</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.005</v>
+        <v>0.023</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.455</v>
+        <v>2.315</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>1648.465</v>
+        <v>691.937</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>7.725</v>
+        <v>9.22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,31 +691,31 @@
         <v>1399488</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1411</v>
+        <v>2588</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>192</v>
+        <v>749</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1204</v>
+        <v>1800</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.011</v>
+        <v>0.015</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>1.063</v>
+        <v>1.507</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>100.823</v>
+        <v>184.925</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>13.206</v>
+        <v>10.944</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,31 +726,31 @@
         <v>786552</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1093</v>
+        <v>1703</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>534</v>
+        <v>1045</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>528</v>
+        <v>610</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.028</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>2.836</v>
+        <v>2.819</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>138.961</v>
+        <v>216.515</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>6.25</v>
+        <v>14.754</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -758,34 +758,34 @@
         <v>25</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>65757</v>
+        <v>38666</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>2</v>
+        <v>143</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.005</v>
+        <v>0.023</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.488</v>
+        <v>2.344</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>311.754</v>
+        <v>662.08</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>0</v>
+        <v>11.888</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,34 +793,34 @@
         <v>26</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>38666</v>
+        <v>65757</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.025</v>
+        <v>0.005</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>2.525</v>
+        <v>0.483</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>512.078</v>
+        <v>314.795</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,31 +831,31 @@
         <v>287375</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.042</v>
+        <v>0.039</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>4.242</v>
+        <v>3.889</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>57.416</v>
+        <v>62.636</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>5.263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,34 +863,34 @@
         <v>28</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>97929</v>
+        <v>164093</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.032</v>
+        <v>0.009</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>3.191</v>
+        <v>0.862</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>95.988</v>
+        <v>70.692</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>0</v>
+        <v>14.062</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,34 +898,34 @@
         <v>29</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>164093</v>
+        <v>97929</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="D20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="F20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="0" t="n">
-        <v>34</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>18</v>
-      </c>
       <c r="G20" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.019</v>
+        <v>0.032</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>1.887</v>
+        <v>3.158</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>32.299</v>
+        <v>97.009</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>22.222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,19 +936,19 @@
         <v>183627</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>14.159</v>
+        <v>14.704</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/CAMCAR_COVID_Cases.xlsx
+++ b/CAMCAR_COVID_Cases.xlsx
@@ -88,12 +88,12 @@
     <t xml:space="preserve">Aruba</t>
   </si>
   <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bahamas</t>
   </si>
   <si>
-    <t xml:space="preserve">Trinidad and Tobago</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guyana</t>
   </si>
   <si>
@@ -103,10 +103,10 @@
     <t xml:space="preserve">Cayman Islands</t>
   </si>
   <si>
+    <t xml:space="preserve">Curacao</t>
+  </si>
+  <si>
     <t xml:space="preserve">Barbados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curacao</t>
   </si>
   <si>
     <t xml:space="preserve">Antigua and Barbuda</t>
@@ -271,31 +271,31 @@
         <v>10847910</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>100937</v>
+        <v>105521</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1914</v>
+        <v>2009</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>74305</v>
+        <v>78891</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>24718</v>
+        <v>24621</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>806</v>
+        <v>718</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0.019</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1.896</v>
+        <v>1.904</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>930.474</v>
+        <v>972.731</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>3.261</v>
+        <v>2.916</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -306,31 +306,31 @@
         <v>4314767</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>99042</v>
+        <v>103466</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>2116</v>
+        <v>2198</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>71419</v>
+        <v>76787</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>25507</v>
+        <v>24481</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0.021</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>2.136</v>
+        <v>2.124</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>2295.419</v>
+        <v>2397.951</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>2.49</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -341,31 +341,31 @@
         <v>17915568</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>79622</v>
+        <v>82924</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>2897</v>
+        <v>3009</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>68308</v>
+        <v>72562</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>8417</v>
+        <v>7353</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>901</v>
+        <v>240</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0.036</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>3.638</v>
+        <v>3.629</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>444.429</v>
+        <v>462.86</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>10.705</v>
+        <v>3.264</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,31 +376,31 @@
         <v>9904607</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>65597</v>
+        <v>69660</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>2044</v>
+        <v>2102</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>15064</v>
+        <v>19983</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>48489</v>
+        <v>47575</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>379</v>
+        <v>1040</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>3.116</v>
+        <v>3.018</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>662.288</v>
+        <v>703.309</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>0.782</v>
+        <v>2.186</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,31 +411,31 @@
         <v>5094118</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>51224</v>
+        <v>59516</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>543</v>
+        <v>649</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>19544</v>
+        <v>21752</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>31137</v>
+        <v>37115</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1327</v>
+        <v>1379</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0.011</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>1005.552</v>
+        <v>1168.328</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>4.262</v>
+        <v>3.715</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -446,31 +446,31 @@
         <v>6486205</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>26602</v>
+        <v>27163</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>770</v>
+        <v>796</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>16786</v>
+        <v>19960</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>9046</v>
+        <v>6407</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0.029</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>2.895</v>
+        <v>2.93</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>410.132</v>
+        <v>418.781</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>1.006</v>
+        <v>1.171</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -481,31 +481,31 @@
         <v>11402528</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>8384</v>
+        <v>8541</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>5991</v>
+        <v>6258</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2179</v>
+        <v>2063</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0.026</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>2.552</v>
+        <v>2.576</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>73.528</v>
+        <v>74.904</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.367</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,16 +516,16 @@
         <v>6624554</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>4818</v>
+        <v>4961</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>2913</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1761</v>
+        <v>1901</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>0</v>
@@ -534,10 +534,10 @@
         <v>0.03</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>2.989</v>
+        <v>2.963</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>72.729</v>
+        <v>74.888</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>0</v>
@@ -551,31 +551,31 @@
         <v>11326616</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>4459</v>
+        <v>4876</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>3727</v>
+        <v>4131</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>2.332</v>
+        <v>2.235</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>39.367</v>
+        <v>43.049</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>13.057</v>
+        <v>11.478</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -586,31 +586,31 @@
         <v>2961167</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>3437</v>
+        <v>4164</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1019</v>
+        <v>1180</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2380</v>
+        <v>2938</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0.011</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1.106</v>
+        <v>1.105</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>116.069</v>
+        <v>140.62</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>4.79</v>
+        <v>4.152</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -621,31 +621,31 @@
         <v>106766</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>2730</v>
+        <v>3328</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1351</v>
+        <v>1676</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1364</v>
+        <v>1630</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.549</v>
+        <v>0.661</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>2556.994</v>
+        <v>3117.097</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>10.337</v>
+        <v>10.798</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -653,34 +653,34 @@
         <v>22</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>393244</v>
+        <v>1399488</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>2721</v>
+        <v>3327</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>1183</v>
+        <v>810</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1475</v>
+        <v>2459</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.023</v>
+        <v>0.017</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>2.315</v>
+        <v>1.743</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>691.937</v>
+        <v>237.73</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>9.22</v>
+        <v>4.229</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -688,34 +688,34 @@
         <v>23</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1399488</v>
+        <v>393244</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>2588</v>
+        <v>3087</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>749</v>
+        <v>1533</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1800</v>
+        <v>1485</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.015</v>
+        <v>0.022</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>1.507</v>
+        <v>2.235</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>184.925</v>
+        <v>785.009</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>10.944</v>
+        <v>3.704</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,31 +726,31 @@
         <v>786552</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1703</v>
+        <v>1958</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1045</v>
+        <v>1302</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.028</v>
+        <v>0.03</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>2.819</v>
+        <v>2.962</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>216.515</v>
+        <v>248.935</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>14.754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -761,31 +761,31 @@
         <v>38666</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.023</v>
+        <v>0.018</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>2.344</v>
+        <v>1.818</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>662.08</v>
+        <v>853.463</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>11.888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -796,7 +796,7 @@
         <v>65757</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
@@ -805,22 +805,22 @@
         <v>204</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.005</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.483</v>
+        <v>0.481</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>314.795</v>
+        <v>316.316</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -828,34 +828,34 @@
         <v>27</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>287375</v>
+        <v>164093</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.039</v>
+        <v>0.005</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>3.889</v>
+        <v>0.521</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>62.636</v>
+        <v>117.007</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>0</v>
+        <v>18.699</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,34 +863,34 @@
         <v>28</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>164093</v>
+        <v>287375</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="D19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>171</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <v>51</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>64</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>9</v>
-      </c>
       <c r="H19" s="0" t="n">
-        <v>0.009</v>
+        <v>0.038</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>0.862</v>
+        <v>3.784</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>70.692</v>
+        <v>64.376</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>14.062</v>
+        <v>14.286</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>0</v>
@@ -960,7 +960,7 @@
         <v>14.704</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CAMCAR_COVID_Cases.xlsx
+++ b/CAMCAR_COVID_Cases.xlsx
@@ -76,21 +76,21 @@
     <t xml:space="preserve">Haiti</t>
   </si>
   <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nicaragua</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamaica</t>
+    <t xml:space="preserve">Trinidad and Tobago</t>
   </si>
   <si>
     <t xml:space="preserve">Aruba</t>
   </si>
   <si>
-    <t xml:space="preserve">Trinidad and Tobago</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bahamas</t>
   </si>
   <si>
@@ -100,10 +100,10 @@
     <t xml:space="preserve">St Martin</t>
   </si>
   <si>
+    <t xml:space="preserve">Curacao</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cayman Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curacao</t>
   </si>
   <si>
     <t xml:space="preserve">Barbados</t>
@@ -271,31 +271,31 @@
         <v>10847910</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>105521</v>
+        <v>109737</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>2009</v>
+        <v>2074</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>78891</v>
+        <v>83434</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>24621</v>
+        <v>24229</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>718</v>
+        <v>468</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0.019</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1.904</v>
+        <v>1.89</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>972.731</v>
+        <v>1011.596</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>2.916</v>
+        <v>1.932</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -306,31 +306,31 @@
         <v>4314767</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>103466</v>
+        <v>107990</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>2198</v>
+        <v>2291</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>76787</v>
+        <v>84437</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>24481</v>
+        <v>21262</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>634</v>
+        <v>706</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0.021</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>2.124</v>
+        <v>2.121</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>2397.951</v>
+        <v>2502.8</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>2.59</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -341,31 +341,31 @@
         <v>17915568</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>82924</v>
+        <v>87442</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>3009</v>
+        <v>3154</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>72562</v>
+        <v>76459</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>7353</v>
+        <v>7829</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>240</v>
+        <v>819</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0.036</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>3.629</v>
+        <v>3.607</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>462.86</v>
+        <v>488.078</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>3.264</v>
+        <v>10.461</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,31 +376,31 @@
         <v>9904607</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>69660</v>
+        <v>72675</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>2102</v>
+        <v>2222</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>19983</v>
+        <v>24022</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>47575</v>
+        <v>46431</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1040</v>
+        <v>369</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>3.018</v>
+        <v>3.057</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>703.309</v>
+        <v>733.749</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>2.186</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,31 +411,31 @@
         <v>5094118</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>59516</v>
+        <v>68059</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>649</v>
+        <v>781</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>21752</v>
+        <v>26136</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>37115</v>
+        <v>41142</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1379</v>
+        <v>1370</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0.011</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1.09</v>
+        <v>1.148</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>1168.328</v>
+        <v>1336.031</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>3.715</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -446,19 +446,19 @@
         <v>6486205</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>27163</v>
+        <v>27954</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>796</v>
+        <v>819</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>19960</v>
+        <v>22113</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>6407</v>
+        <v>5022</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0.029</v>
@@ -467,10 +467,10 @@
         <v>2.93</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>418.781</v>
+        <v>430.976</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>1.171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -481,31 +481,31 @@
         <v>11402528</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>8541</v>
+        <v>8646</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>6258</v>
+        <v>6551</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2063</v>
+        <v>1870</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0.026</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>2.576</v>
+        <v>2.602</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>74.904</v>
+        <v>75.825</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.533</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -513,34 +513,34 @@
         <v>18</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>6624554</v>
+        <v>2961167</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>4961</v>
+        <v>5395</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>2913</v>
+        <v>1444</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1901</v>
+        <v>3875</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.03</v>
+        <v>0.014</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>2.963</v>
+        <v>1.409</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>74.888</v>
+        <v>182.192</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>0</v>
+        <v>3.226</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -551,31 +551,31 @@
         <v>11326616</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>4876</v>
+        <v>5270</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>4131</v>
+        <v>4582</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>636</v>
+        <v>570</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0.022</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>2.235</v>
+        <v>2.239</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>43.049</v>
+        <v>46.528</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>11.478</v>
+        <v>8.421</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,34 +583,34 @@
         <v>20</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>2961167</v>
+        <v>6624554</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>4164</v>
+        <v>5073</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>1180</v>
+        <v>2913</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2938</v>
+        <v>2011</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.011</v>
+        <v>0.029</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1.105</v>
+        <v>2.937</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>140.62</v>
+        <v>76.579</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>4.152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,34 +618,34 @@
         <v>21</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>106766</v>
+        <v>1399488</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>3328</v>
+        <v>4136</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1676</v>
+        <v>1960</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1630</v>
+        <v>2109</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.007</v>
+        <v>0.016</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.661</v>
+        <v>1.62</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>3117.097</v>
+        <v>295.537</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>10.798</v>
+        <v>5.216</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -653,34 +653,34 @@
         <v>22</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1399488</v>
+        <v>106766</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>3327</v>
+        <v>3721</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>810</v>
+        <v>2501</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>2459</v>
+        <v>1195</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.017</v>
+        <v>0.007</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>1.743</v>
+        <v>0.672</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>237.73</v>
+        <v>3485.192</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>4.229</v>
+        <v>4.686</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,31 +691,31 @@
         <v>393244</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>3087</v>
+        <v>3618</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1533</v>
+        <v>1915</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1485</v>
+        <v>1623</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>55</v>
+        <v>151</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.022</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>2.235</v>
+        <v>2.211</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>785.009</v>
+        <v>920.039</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>3.704</v>
+        <v>9.304</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,31 +726,31 @@
         <v>786552</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1958</v>
+        <v>2535</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1302</v>
+        <v>1464</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>598</v>
+        <v>1002</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.03</v>
+        <v>0.027</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>2.962</v>
+        <v>2.722</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>248.935</v>
+        <v>322.293</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>0</v>
+        <v>9.78</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -761,31 +761,31 @@
         <v>38666</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>206</v>
+        <v>273</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.018</v>
+        <v>0.022</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>1.818</v>
+        <v>2.18</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>853.463</v>
+        <v>949.154</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>0</v>
+        <v>43.023</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,34 +793,34 @@
         <v>26</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>65757</v>
+        <v>164093</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>208</v>
+        <v>301</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3</v>
+        <v>196</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.481</v>
+        <v>0.332</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>316.316</v>
+        <v>183.433</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>0</v>
+        <v>5.102</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -828,34 +828,34 @@
         <v>27</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>164093</v>
+        <v>65757</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.005</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>0.521</v>
+        <v>0.476</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>117.007</v>
+        <v>319.358</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>18.699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,31 +866,31 @@
         <v>287375</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>7</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>3.784</v>
+        <v>3.704</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>64.376</v>
+        <v>65.768</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>14.286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -901,31 +901,31 @@
         <v>97929</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" s="0" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>3.158</v>
+        <v>3.093</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>97.009</v>
+        <v>99.051</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/CAMCAR_COVID_Cases.xlsx
+++ b/CAMCAR_COVID_Cases.xlsx
@@ -55,10 +55,13 @@
     <t xml:space="preserve">Daily Incidence pct</t>
   </si>
   <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dominican Republic</t>
   </si>
   <si>
-    <t xml:space="preserve">Panama</t>
+    <t xml:space="preserve">Costa Rica</t>
   </si>
   <si>
     <t xml:space="preserve">Guatemala</t>
@@ -67,52 +70,49 @@
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
     <t xml:space="preserve">El Salvador</t>
   </si>
   <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
     <t xml:space="preserve">Haiti</t>
   </si>
   <si>
-    <t xml:space="preserve">Jamaica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuba</t>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aruba</t>
   </si>
   <si>
     <t xml:space="preserve">Nicaragua</t>
   </si>
   <si>
-    <t xml:space="preserve">Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aruba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahamas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guyana</t>
+    <t xml:space="preserve">Curacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Lucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados</t>
   </si>
   <si>
     <t xml:space="preserve">St Martin</t>
   </si>
   <si>
-    <t xml:space="preserve">Curacao</t>
+    <t xml:space="preserve">Antigua and Barbuda</t>
   </si>
   <si>
     <t xml:space="preserve">Cayman Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Lucia</t>
   </si>
 </sst>
 </file>
@@ -268,34 +268,34 @@
         <v>11</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>10847910</v>
+        <v>4314767</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>109737</v>
+        <v>332679</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>2074</v>
+        <v>5642</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>83434</v>
+        <v>313783</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>24229</v>
+        <v>13254</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>0.019</v>
+        <v>0.017</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1.89</v>
+        <v>1.696</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>1011.596</v>
+        <v>7710.243</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>1.932</v>
+        <v>3.772</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -303,34 +303,34 @@
         <v>12</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>4314767</v>
+        <v>10847910</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>107990</v>
+        <v>230563</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>2291</v>
+        <v>2959</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>84437</v>
+        <v>178146</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>21262</v>
+        <v>49458</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>706</v>
+        <v>795</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.021</v>
+        <v>0.013</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>2.121</v>
+        <v>1.283</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>2502.8</v>
+        <v>2125.414</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>3.32</v>
+        <v>1.607</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,34 +338,34 @@
         <v>13</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>17915568</v>
+        <v>5094118</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>87442</v>
+        <v>200024</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>3154</v>
+        <v>2730</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>76459</v>
+        <v>163334</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>7829</v>
+        <v>33960</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>819</v>
+        <v>837</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.036</v>
+        <v>0.014</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>3.607</v>
+        <v>1.365</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>488.078</v>
+        <v>3926.568</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>10.461</v>
+        <v>2.465</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -373,34 +373,34 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>9904607</v>
+        <v>17915568</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>72675</v>
+        <v>167383</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>2222</v>
+        <v>6150</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>24022</v>
+        <v>154446</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>46431</v>
+        <v>6787</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>369</v>
+        <v>104</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.031</v>
+        <v>0.037</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>3.057</v>
+        <v>3.674</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>733.749</v>
+        <v>934.288</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>0.795</v>
+        <v>1.532</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -408,34 +408,34 @@
         <v>15</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>5094118</v>
+        <v>9904607</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>68059</v>
+        <v>160983</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>781</v>
+        <v>3893</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>26136</v>
+        <v>63346</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>41142</v>
+        <v>93744</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1370</v>
+        <v>812</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.011</v>
+        <v>0.024</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1.148</v>
+        <v>2.418</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>1336.031</v>
+        <v>1625.335</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>3.33</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -446,31 +446,31 @@
         <v>6486205</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>27954</v>
+        <v>58023</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>819</v>
+        <v>1750</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>22113</v>
+        <v>52688</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>5022</v>
+        <v>3585</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>2.93</v>
+        <v>3.016</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>430.976</v>
+        <v>894.56</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>0</v>
+        <v>16.597</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -478,34 +478,34 @@
         <v>17</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>11402528</v>
+        <v>11326616</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>8646</v>
+        <v>39004</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>6551</v>
+        <v>33776</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1870</v>
+        <v>4959</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>13</v>
+        <v>715</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.026</v>
+        <v>0.007</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>2.602</v>
+        <v>0.69</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>75.825</v>
+        <v>344.357</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.695</v>
+        <v>14.418</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,31 +516,31 @@
         <v>2961167</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>5395</v>
+        <v>19305</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>76</v>
+        <v>378</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>1444</v>
+        <v>12635</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>3875</v>
+        <v>6292</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>125</v>
+        <v>270</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.014</v>
+        <v>0.02</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1.409</v>
+        <v>1.958</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>182.192</v>
+        <v>651.939</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>3.226</v>
+        <v>4.291</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,34 +548,34 @@
         <v>19</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>11326616</v>
+        <v>11402528</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>5270</v>
+        <v>12143</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>4582</v>
+        <v>9354</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>570</v>
+        <v>2542</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.022</v>
+        <v>0.02</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>2.239</v>
+        <v>2.034</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>46.528</v>
+        <v>106.494</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>8.421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,31 +583,31 @@
         <v>20</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>6624554</v>
+        <v>393244</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>5073</v>
+        <v>8311</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>2913</v>
+        <v>6931</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>2011</v>
+        <v>1202</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.029</v>
+        <v>0.021</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>2.937</v>
+        <v>2.142</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>76.579</v>
+        <v>2113.446</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>0</v>
@@ -618,34 +618,34 @@
         <v>21</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1399488</v>
+        <v>786552</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>4136</v>
+        <v>8232</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>67</v>
+        <v>186</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>1960</v>
+        <v>7399</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>2109</v>
+        <v>647</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.016</v>
+        <v>0.023</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>1.62</v>
+        <v>2.259</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>295.537</v>
+        <v>1046.593</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>5.216</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -653,34 +653,34 @@
         <v>22</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>106766</v>
+        <v>1399488</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>3721</v>
+        <v>7646</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>2501</v>
+        <v>7351</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1195</v>
+        <v>157</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.007</v>
+        <v>0.018</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.672</v>
+        <v>1.805</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>3485.192</v>
+        <v>546.343</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>4.686</v>
+        <v>2.548</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -688,34 +688,34 @@
         <v>23</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>393244</v>
+        <v>106766</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>3618</v>
+        <v>7438</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>1915</v>
+        <v>7098</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1623</v>
+        <v>272</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.022</v>
+        <v>0.009</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>2.211</v>
+        <v>0.914</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>920.039</v>
+        <v>6966.637</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>9.304</v>
+        <v>9.191</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,34 +723,34 @@
         <v>24</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>786552</v>
+        <v>6624554</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>2535</v>
+        <v>6347</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>69</v>
+        <v>171</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>1464</v>
+        <v>4225</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1002</v>
+        <v>1951</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.027</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>2.722</v>
+        <v>2.694</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>322.293</v>
+        <v>95.81</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>9.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -758,34 +758,34 @@
         <v>25</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>38666</v>
+        <v>164093</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>367</v>
+        <v>4652</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>273</v>
+        <v>4571</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.022</v>
+        <v>0.005</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>2.18</v>
+        <v>0.473</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>949.154</v>
+        <v>2834.978</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>43.023</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,34 +793,34 @@
         <v>26</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>164093</v>
+        <v>183627</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>301</v>
+        <v>2519</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>104</v>
+        <v>1778</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>196</v>
+        <v>718</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.003</v>
+        <v>0.009</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.332</v>
+        <v>0.913</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>183.433</v>
+        <v>1371.803</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>5.102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -828,34 +828,34 @@
         <v>27</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>65757</v>
+        <v>287375</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>210</v>
+        <v>2268</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>205</v>
+        <v>1639</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>4</v>
+        <v>605</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.005</v>
+        <v>0.011</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>0.476</v>
+        <v>1.058</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>319.358</v>
+        <v>789.213</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>0</v>
+        <v>34.215</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,31 +863,31 @@
         <v>28</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>287375</v>
+        <v>38666</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>189</v>
+        <v>1408</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>174</v>
+        <v>1050</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>8</v>
+        <v>346</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.037</v>
+        <v>0.009</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>3.704</v>
+        <v>0.852</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>65.768</v>
+        <v>3641.442</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>0</v>
@@ -901,31 +901,31 @@
         <v>97929</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>97</v>
+        <v>443</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>92</v>
+        <v>205</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>2</v>
+        <v>229</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.031</v>
+        <v>0.02</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>3.093</v>
+        <v>2.032</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>99.051</v>
+        <v>452.369</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>50</v>
+        <v>6.987</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -933,31 +933,31 @@
         <v>30</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>183627</v>
+        <v>65757</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>27</v>
+        <v>416</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>26</v>
+        <v>378</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0</v>
+        <v>0.481</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>14.704</v>
+        <v>632.632</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>0</v>

--- a/CAMCAR_COVID_Cases.xlsx
+++ b/CAMCAR_COVID_Cases.xlsx
@@ -70,34 +70,34 @@
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
     <t xml:space="preserve">El Salvador</t>
   </si>
   <si>
-    <t xml:space="preserve">Cuba</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jamaica</t>
   </si>
   <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
     <t xml:space="preserve">Haiti</t>
   </si>
   <si>
+    <t xml:space="preserve">Curacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aruba</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bahamas</t>
   </si>
   <si>
-    <t xml:space="preserve">Guyana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aruba</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nicaragua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curacao</t>
   </si>
   <si>
     <t xml:space="preserve">Saint Lucia</t>
@@ -271,31 +271,31 @@
         <v>4314767</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>332679</v>
+        <v>365975</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>5642</v>
+        <v>6252</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>313783</v>
+        <v>355828</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>13254</v>
+        <v>3895</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>500</v>
+        <v>356</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0.017</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1.696</v>
+        <v>1.708</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>7710.243</v>
+        <v>8481.918</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>3.772</v>
+        <v>9.14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -306,31 +306,31 @@
         <v>10847910</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>230563</v>
+        <v>268561</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>2959</v>
+        <v>3509</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>178146</v>
+        <v>229453</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>49458</v>
+        <v>35599</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>795</v>
+        <v>491</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0.013</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1.283</v>
+        <v>1.307</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>2125.414</v>
+        <v>2475.693</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>1.607</v>
+        <v>1.379</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -341,31 +341,31 @@
         <v>5094118</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>200024</v>
+        <v>260535</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>2730</v>
+        <v>3326</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>163334</v>
+        <v>209335</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>33960</v>
+        <v>47874</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>837</v>
+        <v>2555</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1.365</v>
+        <v>1.277</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>3926.568</v>
+        <v>5114.428</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>2.465</v>
+        <v>5.337</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,31 +376,31 @@
         <v>17915568</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>167383</v>
+        <v>231289</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>6150</v>
+        <v>7642</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>154446</v>
+        <v>209096</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>6787</v>
+        <v>14551</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>104</v>
+        <v>1194</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.037</v>
+        <v>0.033</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>3.674</v>
+        <v>3.304</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>934.288</v>
+        <v>1290.995</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>1.532</v>
+        <v>8.206</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,31 +411,31 @@
         <v>9904607</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>160983</v>
+        <v>216964</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3893</v>
+        <v>5439</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>63346</v>
+        <v>79925</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>93744</v>
+        <v>131600</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>812</v>
+        <v>1131</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.024</v>
+        <v>0.025</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>2.418</v>
+        <v>2.507</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>1625.335</v>
+        <v>2190.536</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>0.866</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -443,34 +443,34 @@
         <v>16</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>6486205</v>
+        <v>11326616</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>58023</v>
+        <v>111654</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1750</v>
+        <v>694</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>52688</v>
+        <v>105312</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>3585</v>
+        <v>5648</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>595</v>
+        <v>1010</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.03</v>
+        <v>0.006</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>3.016</v>
+        <v>0.622</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>894.56</v>
+        <v>985.767</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>16.597</v>
+        <v>17.882</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -478,34 +478,34 @@
         <v>17</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>11326616</v>
+        <v>6486205</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>39004</v>
+        <v>69997</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>269</v>
+        <v>2141</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>33776</v>
+        <v>65531</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>4959</v>
+        <v>2325</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>715</v>
+        <v>270</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.007</v>
+        <v>0.031</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>0.69</v>
+        <v>3.059</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>344.357</v>
+        <v>1079.167</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>14.418</v>
+        <v>11.613</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,31 +516,31 @@
         <v>2961167</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>19305</v>
+        <v>46194</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>378</v>
+        <v>794</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>12635</v>
+        <v>21779</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>6292</v>
+        <v>23621</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>270</v>
+        <v>107</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.02</v>
+        <v>0.017</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1.958</v>
+        <v>1.719</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>651.939</v>
+        <v>1559.993</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>4.291</v>
+        <v>0.453</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,34 +548,34 @@
         <v>19</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>11402528</v>
+        <v>786552</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>12143</v>
+        <v>13829</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>247</v>
+        <v>308</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>9354</v>
+        <v>11672</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>2542</v>
+        <v>1849</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0</v>
+        <v>173</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>2.034</v>
+        <v>2.227</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>106.494</v>
+        <v>1758.18</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0</v>
+        <v>9.356</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,34 +583,34 @@
         <v>20</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>393244</v>
+        <v>11402528</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>8311</v>
+        <v>13149</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>178</v>
+        <v>260</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>6931</v>
+        <v>12151</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1202</v>
+        <v>738</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>2.142</v>
+        <v>1.977</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>2113.446</v>
+        <v>115.317</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>0</v>
+        <v>1.897</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,34 +618,34 @@
         <v>21</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>786552</v>
+        <v>164093</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>8232</v>
+        <v>12218</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>7399</v>
+        <v>11864</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>647</v>
+        <v>241</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.023</v>
+        <v>0.009</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>2.259</v>
+        <v>0.925</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>1046.593</v>
+        <v>7445.778</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>0.155</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -656,31 +656,31 @@
         <v>1399488</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>7646</v>
+        <v>12105</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>138</v>
+        <v>189</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>7351</v>
+        <v>8892</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>157</v>
+        <v>3024</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>4</v>
+        <v>399</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.018</v>
+        <v>0.016</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>1.805</v>
+        <v>1.561</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>546.343</v>
+        <v>864.959</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>2.548</v>
+        <v>13.194</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,31 +691,31 @@
         <v>106766</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>7438</v>
+        <v>10721</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>7098</v>
+        <v>10482</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.009</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.914</v>
+        <v>0.933</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>6966.637</v>
+        <v>10041.586</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>9.191</v>
+        <v>12.23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,31 +723,31 @@
         <v>24</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>6624554</v>
+        <v>393244</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>6347</v>
+        <v>10576</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>4225</v>
+        <v>9579</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1951</v>
+        <v>787</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.027</v>
+        <v>0.02</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>2.694</v>
+        <v>1.986</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>95.81</v>
+        <v>2689.424</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>0</v>
@@ -758,34 +758,34 @@
         <v>25</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>164093</v>
+        <v>6624554</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>4652</v>
+        <v>6989</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>22</v>
+        <v>183</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>4571</v>
+        <v>4225</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>59</v>
+        <v>2581</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.005</v>
+        <v>0.026</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.473</v>
+        <v>2.618</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>2834.978</v>
+        <v>105.501</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>3.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -796,31 +796,31 @@
         <v>183627</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>2519</v>
+        <v>4585</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>1778</v>
+        <v>4406</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>718</v>
+        <v>105</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.009</v>
+        <v>0.016</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.913</v>
+        <v>1.614</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>1371.803</v>
+        <v>2496.909</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>0</v>
+        <v>11.429</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,31 +831,31 @@
         <v>287375</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>2268</v>
+        <v>3915</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1639</v>
+        <v>3821</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>605</v>
+        <v>49</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.011</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>1.058</v>
+        <v>1.149</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>789.213</v>
+        <v>1362.331</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>34.215</v>
+        <v>63.265</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,28 +866,28 @@
         <v>38666</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>1408</v>
+        <v>1745</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>12</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>1050</v>
+        <v>1399</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.009</v>
+        <v>0.007</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>0.852</v>
+        <v>0.688</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>3641.442</v>
+        <v>4513.009</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>0</v>
@@ -901,31 +901,31 @@
         <v>97929</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>443</v>
+        <v>1232</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>205</v>
+        <v>1014</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.02</v>
+        <v>0.026</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>2.032</v>
+        <v>2.597</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>452.369</v>
+        <v>1258.054</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>6.987</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -936,28 +936,28 @@
         <v>65757</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>416</v>
+        <v>545</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>378</v>
+        <v>533</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0.481</v>
+        <v>0.367</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>632.632</v>
+        <v>828.809</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>0</v>

--- a/CAMCAR_COVID_Cases.xlsx
+++ b/CAMCAR_COVID_Cases.xlsx
@@ -58,12 +58,12 @@
     <t xml:space="preserve">Panama</t>
   </si>
   <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dominican Republic</t>
   </si>
   <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
     <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
@@ -79,6 +79,9 @@
     <t xml:space="preserve">Jamaica</t>
   </si>
   <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
     <t xml:space="preserve">Guyana</t>
   </si>
   <si>
@@ -88,13 +91,10 @@
     <t xml:space="preserve">Curacao</t>
   </si>
   <si>
-    <t xml:space="preserve">Trinidad and Tobago</t>
+    <t xml:space="preserve">Bahamas</t>
   </si>
   <si>
     <t xml:space="preserve">Aruba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahamas</t>
   </si>
   <si>
     <t xml:space="preserve">Nicaragua</t>
@@ -271,31 +271,31 @@
         <v>4314767</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>365975</v>
+        <v>388325</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>6252</v>
+        <v>6451</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>355828</v>
+        <v>372341</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>3895</v>
+        <v>9533</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>356</v>
+        <v>483</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0.017</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>1.708</v>
+        <v>1.661</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>8481.918</v>
+        <v>8999.907</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>9.14</v>
+        <v>5.067</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -303,34 +303,34 @@
         <v>12</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>10847910</v>
+        <v>5094118</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>268561</v>
+        <v>343604</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>3509</v>
+        <v>4388</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>229453</v>
+        <v>262852</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>35599</v>
+        <v>76364</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>491</v>
+        <v>3704</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0.013</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1.307</v>
+        <v>1.277</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>2475.693</v>
+        <v>6745.113</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>1.379</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,34 +338,34 @@
         <v>13</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>5094118</v>
+        <v>10847910</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>260535</v>
+        <v>309477</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>3326</v>
+        <v>3708</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>209335</v>
+        <v>252803</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>47874</v>
+        <v>52966</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>2555</v>
+        <v>827</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1.277</v>
+        <v>1.198</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>5114.428</v>
+        <v>2852.872</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>5.337</v>
+        <v>1.561</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,31 +376,31 @@
         <v>17915568</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>231289</v>
+        <v>271990</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>7642</v>
+        <v>8465</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>209096</v>
+        <v>247134</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>14551</v>
+        <v>16391</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1194</v>
+        <v>287</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.033</v>
+        <v>0.031</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>3.304</v>
+        <v>3.112</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>1290.995</v>
+        <v>1518.177</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>8.206</v>
+        <v>1.751</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -411,31 +411,31 @@
         <v>9904607</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>216964</v>
+        <v>248115</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>5439</v>
+        <v>6653</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>79925</v>
+        <v>89324</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>131600</v>
+        <v>152138</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1131</v>
+        <v>387</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>2.507</v>
+        <v>2.681</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>2190.536</v>
+        <v>2505.046</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>0.859</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -446,31 +446,31 @@
         <v>11326616</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>111654</v>
+        <v>159057</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>694</v>
+        <v>1098</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>105312</v>
+        <v>150855</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>5648</v>
+        <v>7104</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1010</v>
+        <v>1349</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>0.622</v>
+        <v>0.69</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>985.767</v>
+        <v>1404.276</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>17.882</v>
+        <v>18.989</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -481,31 +481,31 @@
         <v>6486205</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>69997</v>
+        <v>75351</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>2141</v>
+        <v>2299</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>65531</v>
+        <v>70150</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2325</v>
+        <v>2902</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0.031</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>3.059</v>
+        <v>3.051</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>1079.167</v>
+        <v>1161.712</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>11.613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,31 +516,31 @@
         <v>2961167</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>46194</v>
+        <v>49356</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>794</v>
+        <v>1011</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>21779</v>
+        <v>27732</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>23621</v>
+        <v>20613</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1.719</v>
+        <v>2.048</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>1559.993</v>
+        <v>1666.775</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>0.453</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -548,34 +548,34 @@
         <v>19</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>786552</v>
+        <v>1399488</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>13829</v>
+        <v>28982</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>308</v>
+        <v>677</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>11672</v>
+        <v>19141</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1849</v>
+        <v>9164</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>2.227</v>
+        <v>2.336</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>1758.18</v>
+        <v>2070.9</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>9.356</v>
+        <v>2.826</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,34 +583,34 @@
         <v>20</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>11402528</v>
+        <v>786552</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>13149</v>
+        <v>18446</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>260</v>
+        <v>430</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>12151</v>
+        <v>16313</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>738</v>
+        <v>1703</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.02</v>
+        <v>0.023</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1.977</v>
+        <v>2.331</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>115.317</v>
+        <v>2345.172</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>1.897</v>
+        <v>3.523</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -618,34 +618,34 @@
         <v>21</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>164093</v>
+        <v>11402528</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>12218</v>
+        <v>16561</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>113</v>
+        <v>355</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>11864</v>
+        <v>12563</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>241</v>
+        <v>3643</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1</v>
+        <v>482</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.009</v>
+        <v>0.021</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.925</v>
+        <v>2.144</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>7445.778</v>
+        <v>145.24</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>0.415</v>
+        <v>13.231</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -653,34 +653,34 @@
         <v>22</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1399488</v>
+        <v>164093</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>12105</v>
+        <v>12296</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>189</v>
+        <v>123</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>8892</v>
+        <v>12144</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>3024</v>
+        <v>29</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>399</v>
+        <v>1</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.016</v>
+        <v>0.01</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>1.561</v>
+        <v>1</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>864.959</v>
+        <v>7493.312</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>13.194</v>
+        <v>3.448</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -688,34 +688,34 @@
         <v>23</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>106766</v>
+        <v>393244</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>10721</v>
+        <v>12199</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>100</v>
+        <v>237</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>10482</v>
+        <v>11136</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>139</v>
+        <v>826</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.009</v>
+        <v>0.019</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.933</v>
+        <v>1.943</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>10041.586</v>
+        <v>3102.145</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>12.23</v>
+        <v>12.954</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,34 +723,34 @@
         <v>24</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>393244</v>
+        <v>106766</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>10576</v>
+        <v>11081</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>9579</v>
+        <v>10956</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>787</v>
+        <v>18</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>1.986</v>
+        <v>0.966</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>2689.424</v>
+        <v>10378.772</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>0</v>
+        <v>5.556</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -761,28 +761,28 @@
         <v>6624554</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>6989</v>
+        <v>7662</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>4225</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>2581</v>
+        <v>3249</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>2.618</v>
+        <v>2.454</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>105.501</v>
+        <v>115.661</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>0</v>
@@ -796,31 +796,31 @@
         <v>183627</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>4585</v>
+        <v>5180</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>4406</v>
+        <v>5006</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>1.614</v>
+        <v>1.544</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>2496.909</v>
+        <v>2820.936</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>11.429</v>
+        <v>1.064</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -831,31 +831,31 @@
         <v>287375</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>3915</v>
+        <v>4037</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>3821</v>
+        <v>3971</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>1.149</v>
+        <v>1.164</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>1362.331</v>
+        <v>1404.785</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>63.265</v>
+        <v>5.263</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,7 +866,7 @@
         <v>38666</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>1745</v>
+        <v>2040</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>12</v>
@@ -875,19 +875,19 @@
         <v>1399</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>334</v>
+        <v>629</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>0.688</v>
+        <v>0.588</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>4513.009</v>
+        <v>5275.953</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>0</v>
@@ -901,28 +901,28 @@
         <v>97929</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>1232</v>
+        <v>1263</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>1014</v>
+        <v>1214</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>186</v>
+        <v>7</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.026</v>
+        <v>0.033</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>2.597</v>
+        <v>3.325</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>1258.054</v>
+        <v>1289.71</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>0</v>
@@ -936,31 +936,31 @@
         <v>65757</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>545</v>
+        <v>593</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>2</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>533</v>
+        <v>581</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>10</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0.367</v>
+        <v>0.337</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>828.809</v>
+        <v>901.805</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
